--- a/main/ig/ValueSet-fr-core-vs-categorie-sae-etablissement.xlsx
+++ b/main/ig/ValueSet-fr-core-vs-categorie-sae-etablissement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-ballot</t>
+    <t>2.2.0-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Interop'Santé (http://interopsante.org/)</t>
+    <t>Interop'Santé (http://interopsante.org)</t>
   </si>
   <si>
     <t>InteropSanté (fhir@interopsante.org(Work))</t>
